--- a/Data/Lab Notebook - Table excel files/240710_PM.xlsx
+++ b/Data/Lab Notebook - Table excel files/240710_PM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Turner Lab/Write up/Lab Notebook - Table excel files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/cm2162_cam_ac_uk/Documents/Lab Notebook/Data/Lab Notebook - Table excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{6E3DC1C5-2C5E-044F-A77A-19DBB8978AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AE770BD-B79E-B042-8F1A-9272720EAC85}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{6E3DC1C5-2C5E-044F-A77A-19DBB8978AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5537EDE0-F7E9-7C4F-A355-89F905D7F70E}"/>
   <bookViews>
-    <workbookView xWindow="36960" yWindow="-620" windowWidth="28040" windowHeight="16820" xr2:uid="{DC480521-FD5B-724E-863C-3CFDCCF0A2E4}"/>
+    <workbookView xWindow="39800" yWindow="-820" windowWidth="28040" windowHeight="16820" activeTab="2" xr2:uid="{DC480521-FD5B-724E-863C-3CFDCCF0A2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Value</t>
   </si>
@@ -106,13 +107,106 @@
   </si>
   <si>
     <t xml:space="preserve">  -RTX +25% Serum</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Cell Line</t>
+  </si>
+  <si>
+    <t>Cell Count</t>
+  </si>
+  <si>
+    <t>CS Volume</t>
+  </si>
+  <si>
+    <t>Media Volume</t>
+  </si>
+  <si>
+    <t>Final cells/well</t>
+  </si>
+  <si>
+    <t>Plate 1 - A1</t>
+  </si>
+  <si>
+    <t>R1-DP2</t>
+  </si>
+  <si>
+    <t>Plate 1 - A2</t>
+  </si>
+  <si>
+    <t>R2-DP2</t>
+  </si>
+  <si>
+    <t>Plate 1 - A3</t>
+  </si>
+  <si>
+    <t>R3-DP2</t>
+  </si>
+  <si>
+    <t>Plate 1 - B1</t>
+  </si>
+  <si>
+    <t>R4-DP2</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Plate 1 - B2</t>
+  </si>
+  <si>
+    <t>Plate 1 - B3</t>
+  </si>
+  <si>
+    <t>R6-DP2</t>
+  </si>
+  <si>
+    <t>Plate 2 - A1</t>
+  </si>
+  <si>
+    <t>C1-DP2</t>
+  </si>
+  <si>
+    <t>Plate 2 - A2</t>
+  </si>
+  <si>
+    <t>C2-DP2</t>
+  </si>
+  <si>
+    <t>Plate 2 - A3</t>
+  </si>
+  <si>
+    <t>C3-DP2</t>
+  </si>
+  <si>
+    <t>Plate 2 - B1</t>
+  </si>
+  <si>
+    <t>C4-DP2</t>
+  </si>
+  <si>
+    <t>Plate 2 - B2</t>
+  </si>
+  <si>
+    <t>C5-DP2</t>
+  </si>
+  <si>
+    <t>Plate 2 - B3</t>
+  </si>
+  <si>
+    <t>C6-DP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +218,28 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,8 +263,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,10 +286,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7EA43-68EE-B74B-AFF1-91C80E51AEA6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -672,4 +790,304 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B339E1-3CE1-8A46-B493-454A4377C5FF}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3">
+        <v>466000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>(F2/C2)*1000</f>
+        <v>429.18454935622321</v>
+      </c>
+      <c r="E2" s="4">
+        <f>1000-D2</f>
+        <v>570.81545064377679</v>
+      </c>
+      <c r="F2" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5">
+        <v>507000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D4" si="0">(F3/C3)*1000</f>
+        <v>394.47731755424064</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E4" si="1">1000-D3</f>
+        <v>605.5226824457593</v>
+      </c>
+      <c r="F3" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>293000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>(F4/C4)*1000</f>
+        <v>682.59385665529021</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>317.40614334470979</v>
+      </c>
+      <c r="F4" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>429000</v>
+      </c>
+      <c r="D5" s="4">
+        <f>(F5/C5)*1000</f>
+        <v>466.20046620046617</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5" si="2">1000-D5</f>
+        <v>533.79953379953383</v>
+      </c>
+      <c r="F5" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5">
+        <v>319000</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D13" si="3">(F7/C7)*1000</f>
+        <v>626.95924764890287</v>
+      </c>
+      <c r="E7" s="4">
+        <f>1000-D7</f>
+        <v>373.04075235109713</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3">
+        <v>916000</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="3"/>
+        <v>218.34061135371181</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8:E13" si="4">1000-D8</f>
+        <v>781.65938864628822</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="3"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="4"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="F9" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="3"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="4"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5">
+        <v>400000</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5">
+        <v>361000</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="3"/>
+        <v>554.016620498615</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="4"/>
+        <v>445.983379501385</v>
+      </c>
+      <c r="F12" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5">
+        <v>366000</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="3"/>
+        <v>546.44808743169403</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>453.55191256830597</v>
+      </c>
+      <c r="F13" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>